--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -451,9 +451,9 @@
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:9" customHeight="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customHeight="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customHeight="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customHeight="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customHeight="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customHeight="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customHeight="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customHeight="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -685,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customHeight="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customHeight="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customHeight="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -772,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customHeight="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customHeight="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -830,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customHeight="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -859,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customHeight="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customHeight="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customHeight="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customHeight="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customHeight="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" customHeight="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customHeight="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customHeight="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" customHeight="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" customHeight="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" customHeight="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" customHeight="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customHeight="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customHeight="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customHeight="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customHeight="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" customHeight="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" customHeight="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" customHeight="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" customHeight="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" customHeight="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" customHeight="1">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" customHeight="1">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:9" customHeight="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" customHeight="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" customHeight="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" customHeight="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customHeight="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customHeight="1">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" customHeight="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customHeight="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customHeight="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" customHeight="1">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" customHeight="1">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customHeight="1">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customHeight="1">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" customHeight="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" customHeight="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" customHeight="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" customHeight="1">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>

--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -11,7 +11,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>AACSB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Blooms</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Gradable</t>
+  </si>
+  <si>
+    <t>LODescription</t>
+  </si>
   <si>
     <t>Problem 01-01 (Static) </t>
   </si>
@@ -106,7 +145,7 @@
   <si>
     <t>Extracted Data: 01-01  Define tax,and jurisdiction.,incidence,taxpayer, 01-05  Describe the taxes levied by the federal government.
 Problem Map Data: 01-01 Define tax,and jurisdiction.,incidence,taxpayer, 01-05 Describe the taxes levied by the federal government.
-Match: 0.75</t>
+Match: 1</t>
   </si>
   <si>
     <t>Problem 01-03 (Static) </t>
@@ -188,7 +227,7 @@
   <si>
     <t>Extracted Data: 01-02  Express the relationship between tax base,and revenue as a formula.,rate, 01-03  Describe the taxes levied by local governments.
 Problem Map Data: 01-02 Express the relationship between tax base,and revenue as a formula.,rate, 01-03 Describe the taxes levied by local governments.
-Match: 0.75</t>
+Match: 1</t>
   </si>
   <si>
     <t>Problem 01-05 (Static) </t>
@@ -276,7 +315,7 @@
   <si>
     <t>Extracted Data: 01-03  Describe the taxes levied by local governments., 01-04  Describe the taxes levied by state governments.
 Problem Map Data: 01-03 Describe the taxes levied by local governments., 01-04 Describe the taxes levied by state governments.
-Match: 0.75</t>
+Match: 1</t>
   </si>
   <si>
     <t>Problem 01-14 (Algo) </t>
@@ -308,7 +347,7 @@
     <t>Problem 01-15 (Algo) </t>
   </si>
   <si>
-    <t>Extracted Data: 
+    <t>Extracted Data: WK
 Problem Map Data: Worksheet
 Match: 0</t>
   </si>
@@ -369,7 +408,7 @@
   <si>
     <t>Extracted Data: 02-01  Explain the concept of sufficiency of a good tax., 02-02  Differentiate between the income effect and the substitution effect.
 Problem Map Data: 02-01 Explain the concept of sufficiency of a good tax., 02-02 Differentiate between the income effect and the substitution effect.
-Match: 0.75</t>
+Match: 1</t>
   </si>
   <si>
     <t>Problem 02-04 (Static) </t>
@@ -438,7 +477,7 @@
   <si>
     <t>Extracted Data: 02-06  Differentiate between regressive,and progressive rate structures.,proportionate, 02-07  Explain the difference between marginal and average tax rates.
 Problem Map Data: 02-06 Differentiate between regressive,and progressive rate structures.,proportionate, 02-07 Explain the difference between marginal and average tax rates.
-Match: 0.75</t>
+Match: 1</t>
   </si>
   <si>
     <t>Problem 02-08 (Static) </t>
@@ -519,7 +558,7 @@
   <si>
     <t>Extracted Data: 02-06  Differentiate between regressive,and progressive rate structures.,proportionate
 Problem Map Data: 02-06 Differentiate between regressive,and progressive rate structures.,proportionate
-Match: 0.5</t>
+Match: 1</t>
   </si>
   <si>
     <t>Problem 02-14 (Static) </t>
@@ -532,20 +571,32 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B8FF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -567,11 +618,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -584,2218 +636,2259 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="16"/>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
